--- a/src/test/resources/test16.xlsx
+++ b/src/test/resources/test16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Metadata</t>
   </si>
@@ -22,27 +22,12 @@
     <t>@base</t>
   </si>
   <si>
-    <t>@data-namespace</t>
-  </si>
-  <si>
-    <t>@schema-namespace</t>
-  </si>
-  <si>
     <t>@prefix</t>
   </si>
   <si>
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>http://sales.data/purchases/2015</t>
-  </si>
-  <si>
-    <t>http://sales.data/purchases#</t>
-  </si>
-  <si>
-    <t>http://sales.data/schema#</t>
-  </si>
-  <si>
     <t>&lt;http://sales.data/schema#&gt;</t>
   </si>
   <si>
@@ -59,6 +44,12 @@
   </si>
   <si>
     <t>&lt;http://sales.data/purchases#&gt;</t>
+  </si>
+  <si>
+    <t>:data</t>
+  </si>
+  <si>
+    <t>:schema</t>
   </si>
 </sst>
 </file>
@@ -413,7 +404,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +412,7 @@
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -430,60 +422,63 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
